--- a/excel/Plantilla_Update.xlsx
+++ b/excel/Plantilla_Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>SKU</t>
   </si>
@@ -27,22 +27,7 @@
     <t>STOCK</t>
   </si>
   <si>
-    <t>UBICACIÓN</t>
-  </si>
-  <si>
     <t>PRECIO SIN IVA</t>
-  </si>
-  <si>
-    <t>DISTRIBUIDOR A</t>
-  </si>
-  <si>
-    <t>DISTRIBUIDOR B</t>
-  </si>
-  <si>
-    <t>DISTRIBUIDOR C</t>
-  </si>
-  <si>
-    <t>PRECIO CON IVA</t>
   </si>
   <si>
     <t>LED ADVENTURE BIKE KIT CHICA</t>
@@ -50,9 +35,6 @@
   <si>
     <t>LED ADVENTURE BIKE KIT GRANDE</t>
   </si>
-  <si>
-    <t>Web</t>
-  </si>
 </sst>
 </file>
 
@@ -61,16 +43,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,12 +75,15 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -129,26 +106,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -160,26 +122,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:I3" totalsRowShown="0">
-  <autoFilter ref="A1:I3"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="SKU"/>
     <tableColumn id="2" name="ARTICULO"/>
     <tableColumn id="3" name="STOCK"/>
-    <tableColumn id="4" name="UBICACIÓN"/>
-    <tableColumn id="5" name="PRECIO SIN IVA" dataDxfId="6"/>
-    <tableColumn id="6" name="DISTRIBUIDOR A" dataDxfId="5">
-      <calculatedColumnFormula>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.65</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="DISTRIBUIDOR B" dataDxfId="4">
-      <calculatedColumnFormula>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.55</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="DISTRIBUIDOR C" dataDxfId="3">
-      <calculatedColumnFormula>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.5</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" name="PRECIO CON IVA" dataDxfId="2">
-      <calculatedColumnFormula>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.84</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="5" name="PRECIO SIN IVA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -472,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -483,14 +432,10 @@
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,86 +448,33 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7018140</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1">
         <v>9000</v>
       </c>
-      <c r="F2" s="1">
-        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.65</f>
-        <v>5850</v>
-      </c>
-      <c r="G2" s="1">
-        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.55</f>
-        <v>4950</v>
-      </c>
-      <c r="H2" s="1">
-        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.5</f>
-        <v>4500</v>
-      </c>
-      <c r="I2" s="1">
-        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.84</f>
-        <v>7560</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>7018139</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="1">
         <v>9001</v>
-      </c>
-      <c r="F3" s="1">
-        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.65</f>
-        <v>5850.6500000000005</v>
-      </c>
-      <c r="G3" s="1">
-        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.55</f>
-        <v>4950.55</v>
-      </c>
-      <c r="H3" s="1">
-        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.5</f>
-        <v>4500.5</v>
-      </c>
-      <c r="I3" s="1">
-        <f>Tabla1[[#This Row],[PRECIO SIN IVA]]*0.84</f>
-        <v>7560.84</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Plantilla_Update.xlsx
+++ b/excel/Plantilla_Update.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
